--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,58 +61,67 @@
     <t>war</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
   </si>
   <si>
     <t>nice</t>
@@ -121,63 +130,48 @@
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -187,43 +181,46 @@
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -587,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -698,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -748,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,16 +774,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -798,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -806,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6917808219178082</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C6">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D6">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -824,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -906,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5897435897435898</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -924,31 +921,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>0.84375</v>
-      </c>
-      <c r="L8">
-        <v>108</v>
-      </c>
-      <c r="M8">
-        <v>108</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -974,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.8292682926829268</v>
@@ -1006,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3959731543624161</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1024,31 +1021,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
+        <v>106</v>
+      </c>
+      <c r="M10">
+        <v>106</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1056,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3643410852713178</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1098,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3544973544973545</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1124,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1148,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1174,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1198,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1206,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3220338983050847</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1224,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1248,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1256,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3116883116883117</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1274,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1306,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2375</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1324,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1348,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2301587301587301</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7358490566037735</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2222222222222222</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1424,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1099195710455764</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1474,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>0.70625</v>
@@ -1502,17 +1499,41 @@
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>330</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6764705882352942</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1550,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.6382978723404256</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L22">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="M22">
-        <v>60</v>
+        <v>244</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1576,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1602,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6067415730337079</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1628,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L25">
         <v>48</v>
       </c>
-      <c r="K25">
-        <v>0.6057441253263708</v>
-      </c>
-      <c r="L25">
-        <v>232</v>
-      </c>
       <c r="M25">
-        <v>232</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1654,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.5588235294117647</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L26">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1680,21 +1701,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1706,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5348837209302325</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1732,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.52</v>
+        <v>0.497907949790795</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1758,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.5186440677966102</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L30">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1784,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>142</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.5076923076923077</v>
+        <v>0.46875</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1810,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.497907949790795</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L32">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1836,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.4657534246575342</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1862,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.4615384615384616</v>
+        <v>0.3</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35">
+        <v>0.1394230769230769</v>
+      </c>
+      <c r="L35">
         <v>58</v>
       </c>
-      <c r="K35">
-        <v>0.453125</v>
-      </c>
-      <c r="L35">
-        <v>29</v>
-      </c>
       <c r="M35">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1914,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1940,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.3714285714285714</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1966,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.1244019138755981</v>
+        <v>0.08277404921700224</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1992,47 +2013,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>366</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.1225961538461538</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="L39">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>365</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.08389261744966443</v>
+        <v>0.06770255271920089</v>
       </c>
       <c r="L40">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M40">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2044,215 +2065,163 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>819</v>
+        <v>840</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.08222222222222222</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L41">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>826</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.06748466257668712</v>
+        <v>0.04036908881199539</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>304</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.0478395061728395</v>
+        <v>0.03277153558052434</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>617</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.0411522633744856</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L44">
         <v>20</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>466</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.04067321178120617</v>
+        <v>0.0196837689577283</v>
       </c>
       <c r="L45">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="M45">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2052</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.04041570438799076</v>
+        <v>0.007223618090452261</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K47">
-        <v>0.02102199223803363</v>
-      </c>
-      <c r="L47">
-        <v>65</v>
-      </c>
-      <c r="M47">
-        <v>80</v>
-      </c>
-      <c r="N47">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O47">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48">
-        <v>0.01001564945226917</v>
-      </c>
-      <c r="L48">
-        <v>32</v>
-      </c>
-      <c r="M48">
-        <v>38</v>
-      </c>
-      <c r="N48">
-        <v>0.84</v>
-      </c>
-      <c r="O48">
-        <v>0.16</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3163</v>
+        <v>3161</v>
       </c>
     </row>
   </sheetData>
